--- a/experiment result.xlsx
+++ b/experiment result.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="mnist" sheetId="1" r:id="rId1"/>
     <sheet name="fashion-mnist" sheetId="2" r:id="rId2"/>
+    <sheet name="Caltech" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>anomalyclass</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,6 +80,18 @@
   </si>
   <si>
     <t>prc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inlier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1142,7 +1155,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
@@ -1903,4 +1916,63 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+      <c r="D1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>0.995</v>
+      </c>
+      <c r="C2">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="D2">
+        <v>0.96299999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="C3">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="D3">
+        <v>0.95</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/experiment result.xlsx
+++ b/experiment result.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="mnist" sheetId="1" r:id="rId1"/>
     <sheet name="fashion-mnist" sheetId="2" r:id="rId2"/>
     <sheet name="Caltech" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="59">
   <si>
     <t>anomalyclass</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,6 +93,170 @@
   </si>
   <si>
     <t>F1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>% of outliers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPND/ECND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.968/0.986</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.945/0.974</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.917/0.958</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8910.938</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.864/0.911</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.928/0.968</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.932/0.968</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.933/0.969</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.933/0.9705</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.933/0.9705</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REAPER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OutlierPursuit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LRR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DPCP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R-graph</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D(x)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D(R(x))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ECND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cifar10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Imagenetcrop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Outlier dataset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUROC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUPR in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUPR out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPR in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPR in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPR out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPR out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Imagenetresize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lsun(resize)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uniform</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gaussian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lsun</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -180,7 +345,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -198,6 +363,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -482,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:L15"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1153,10 +1324,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1246,7 +1417,7 @@
       <c r="J3" s="2">
         <v>0.94669999999999999</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="3">
         <v>0.98619999999999997</v>
       </c>
       <c r="L3">
@@ -1285,7 +1456,7 @@
       <c r="J4" s="2">
         <v>0.88819999999999999</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="3">
         <v>0.9748</v>
       </c>
       <c r="L4">
@@ -1324,7 +1495,7 @@
       <c r="J5" s="2">
         <v>0.85170000000000001</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="3">
         <v>0.95830000000000004</v>
       </c>
       <c r="L5">
@@ -1363,7 +1534,7 @@
       <c r="J6" s="2">
         <v>0.80840000000000001</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="3">
         <v>0.93820000000000003</v>
       </c>
       <c r="L6">
@@ -1402,7 +1573,7 @@
       <c r="J7" s="2">
         <v>0.75397000000000003</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="3">
         <v>0.91080000000000005</v>
       </c>
       <c r="L7">
@@ -1911,7 +2082,80 @@
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C24" s="8"/>
     </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="2">
+        <v>10</v>
+      </c>
+      <c r="C27" s="2">
+        <v>20</v>
+      </c>
+      <c r="D27" s="2">
+        <v>30</v>
+      </c>
+      <c r="E27" s="2">
+        <v>40</v>
+      </c>
+      <c r="F27" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B28:F28"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1920,15 +2164,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1942,7 +2186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1956,7 +2200,7 @@
         <v>0.96299999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1968,6 +2212,354 @@
       </c>
       <c r="D3">
         <v>0.95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="10">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="I7" s="10">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="J7" s="10">
+        <v>0.995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="10">
+        <v>0.88</v>
+      </c>
+      <c r="C8" s="10">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="G8" s="10">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="H8" s="10">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="I8" s="10">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="J8" s="10">
+        <v>0.93300000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="10">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="G9" s="10">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="H9" s="10">
+        <v>0.93</v>
+      </c>
+      <c r="I9" s="10">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="J9" s="10">
+        <v>0.96699999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="10">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="C10" s="10">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="G10" s="10">
+        <v>0.88</v>
+      </c>
+      <c r="H10" s="10">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="I10" s="10">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="J10" s="10">
+        <v>0.94599999999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="10">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="C11" s="10">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0.629</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="F11" s="10">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="G11" s="10">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="H11" s="10">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="I11" s="10">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="J11" s="10">
+        <v>0.96299999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="10">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="C12" s="10">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="F12" s="10">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="G12" s="10">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="H12" s="10">
+        <v>0.89</v>
+      </c>
+      <c r="I12" s="10">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="J12" s="10">
+        <v>0.95</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="D3">
+        <v>0.99780000000000002</v>
+      </c>
+      <c r="E3">
+        <v>0.99829999999999997</v>
+      </c>
+      <c r="F3">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="G3">
+        <v>1.8E-3</v>
+      </c>
+      <c r="H3">
+        <v>0.99809999999999999</v>
+      </c>
+      <c r="I3">
+        <v>6.9999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5">
+        <v>0.998</v>
+      </c>
+      <c r="D5">
+        <v>0.998</v>
+      </c>
+      <c r="E5">
+        <v>0.998</v>
+      </c>
+      <c r="F5">
+        <v>0.999</v>
+      </c>
+      <c r="G5">
+        <v>1E-3</v>
+      </c>
+      <c r="H5">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="I5">
+        <v>6.9999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/experiment result.xlsx
+++ b/experiment result.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="mnist" sheetId="1" r:id="rId1"/>
     <sheet name="fashion-mnist" sheetId="2" r:id="rId2"/>
     <sheet name="Caltech" sheetId="3" r:id="rId3"/>
     <sheet name="cifar10" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="70">
   <si>
     <t>anomalyclass</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -289,6 +290,18 @@
   </si>
   <si>
     <t>Cifar100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4158,7 +4171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -4358,4 +4371,57 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>4</v>
+      </c>
+      <c r="D1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2">
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="C2">
+        <v>0.94899999999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="C3">
+        <v>0.96299999999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/experiment result.xlsx
+++ b/experiment result.xlsx
@@ -1062,7 +1062,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1191,7 +1190,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4375,10 +4373,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4407,6 +4405,9 @@
       <c r="C2">
         <v>0.94899999999999995</v>
       </c>
+      <c r="D2">
+        <v>0.90139999999999998</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -4417,6 +4418,30 @@
       </c>
       <c r="C3">
         <v>0.96299999999999997</v>
+      </c>
+      <c r="D3">
+        <v>0.93069999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0.90139999999999998</v>
+      </c>
+      <c r="B8">
+        <v>0.8871</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0.93069999999999997</v>
+      </c>
+      <c r="B9">
+        <v>0.95350000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/experiment result.xlsx
+++ b/experiment result.xlsx
@@ -11,7 +11,7 @@
     <sheet name="fashion-mnist" sheetId="2" r:id="rId2"/>
     <sheet name="Caltech" sheetId="3" r:id="rId3"/>
     <sheet name="cifar10" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
+    <sheet name="Coil" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -4376,7 +4376,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4406,7 +4406,7 @@
         <v>0.94899999999999995</v>
       </c>
       <c r="D2">
-        <v>0.90139999999999998</v>
+        <v>0.8871</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4420,7 +4420,7 @@
         <v>0.96299999999999997</v>
       </c>
       <c r="D3">
-        <v>0.93069999999999997</v>
+        <v>0.95350000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">

--- a/experiment result.xlsx
+++ b/experiment result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="mnist" sheetId="1" r:id="rId1"/>
@@ -1062,6 +1062,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1190,6 +1191,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1913,16 +1915,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>378870</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>108514</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>619067</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>91949</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>101913</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>137089</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>342109</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>120525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2209,8 +2211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView topLeftCell="B11" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3030,11 +3032,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="10.25" customWidth="1"/>
+    <col min="3" max="4" width="11.625" customWidth="1"/>
+    <col min="5" max="5" width="11.125" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
@@ -3847,7 +3855,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4170,7 +4178,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4375,8 +4383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
